--- a/test_set.xlsx
+++ b/test_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\color\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE07BB22-5CED-4466-8C34-1597871A5FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE754285-EACB-4C3D-9E54-0BC4456FD157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="6075" windowWidth="21600" windowHeight="11385" xr2:uid="{09B47439-87C1-4530-834F-8ACB5B4344B5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Question</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>&lt;p&gt;안녕 못해&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적 알려주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;안녕하세요 저녁뭐먹지 팀 입니다. 우리는 편의점에서 진행되는 이벤트와 꿀조합을 알려드리기 위한 챗봇을 만들고 있습니다.&lt;/p&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9133DE6A-3886-4533-8C0A-81B517EB2748}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,6 +464,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
